--- a/src/main/resources/xlsx/reporteSUM.xlsx
+++ b/src/main/resources/xlsx/reporteSUM.xlsx
@@ -15,10 +15,10 @@
     <sheet name="ALUMNO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALUMNO!$B$4:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALUMNO!$B$4:$I$5</definedName>
     <definedName name="Datos">ALUMNO!$A$5:$K$5</definedName>
     <definedName name="Encabezado">ALUMNO!$A$3:$K$4</definedName>
-    <definedName name="Titulo">ALUMNO!$A$1:$K$2</definedName>
+    <definedName name="Titulo">ALUMNO!$A$1:$I$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -554,9 +554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
       <c r="I7" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:K4"/>
+  <autoFilter ref="B4:I5"/>
   <mergeCells count="1">
     <mergeCell ref="B1:K2"/>
   </mergeCells>
